--- a/Lecture 3/Homework/faculty_n.xlsx
+++ b/Lecture 3/Homework/faculty_n.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liviosilva-muller/Documents/GitHub/Fundamentals_of_R_IHEID2022/Lecture 3/Homework/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F0F44E2-89A3-DF42-8FFE-5EB4BA113F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94BB58D3-11D9-BF41-A320-15CE8FCEEE10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="16100" windowHeight="17080" xr2:uid="{C6B75A5C-4AA4-A748-AAAA-97E9FC66D1E9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>faculty_n</t>
   </si>
@@ -47,9 +47,6 @@
     <t>ANSO</t>
   </si>
   <si>
-    <t>DE</t>
-  </si>
-  <si>
     <t>DI</t>
   </si>
   <si>
@@ -60,9 +57,6 @@
   </si>
   <si>
     <t>HPI</t>
-  </si>
-  <si>
-    <t>IA</t>
   </si>
   <si>
     <t>MINT</t>
@@ -420,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEEA78EB-BDBA-3041-B522-1A01964239D8}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -449,7 +443,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -457,7 +451,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -465,7 +459,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -481,7 +475,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>23</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -489,22 +483,6 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
         <v>20</v>
       </c>
     </row>
